--- a/tpu_group_data_check.xlsx
+++ b/tpu_group_data_check.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="46">
   <si>
     <t>Time</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Activity</t>
   </si>
   <si>
+    <t>log_Activity</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
@@ -56,12 +59,6 @@
   </si>
   <si>
     <t>Median_Income_log</t>
-  </si>
-  <si>
-    <t>Median_Income_Filtered</t>
-  </si>
-  <si>
-    <t>Median_Income_Filtered_log</t>
   </si>
   <si>
     <t>2016_11</t>
@@ -512,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q169"/>
+  <dimension ref="A1:P169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,22 +561,19 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -600,39 +594,36 @@
         <v>353</v>
       </c>
       <c r="K2">
+        <v>5.866468056933297</v>
+      </c>
+      <c r="L2">
         <v>11</v>
       </c>
-      <c r="L2">
-        <v>8743</v>
-      </c>
       <c r="M2">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N2">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O2">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P2">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q2">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,39 +644,36 @@
         <v>353</v>
       </c>
       <c r="K3">
+        <v>5.866468056933297</v>
+      </c>
+      <c r="L3">
         <v>11</v>
       </c>
-      <c r="L3">
-        <v>63203</v>
-      </c>
       <c r="M3">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N3">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O3">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P3">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q3">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -706,39 +694,36 @@
         <v>360</v>
       </c>
       <c r="K4">
+        <v>5.886104031450156</v>
+      </c>
+      <c r="L4">
         <v>11</v>
       </c>
-      <c r="L4">
-        <v>103979</v>
-      </c>
       <c r="M4">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N4">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O4">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P4">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q4">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,39 +744,36 @@
         <v>176</v>
       </c>
       <c r="K5">
+        <v>5.170483995038151</v>
+      </c>
+      <c r="L5">
         <v>11</v>
       </c>
-      <c r="L5">
-        <v>11896</v>
-      </c>
       <c r="M5">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N5">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O5">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P5">
-        <v>15000</v>
-      </c>
-      <c r="Q5">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,39 +794,36 @@
         <v>34</v>
       </c>
       <c r="K6">
+        <v>3.526360524616162</v>
+      </c>
+      <c r="L6">
         <v>11</v>
       </c>
-      <c r="L6">
-        <v>86089</v>
-      </c>
       <c r="M6">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N6">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O6">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P6">
-        <v>13000</v>
-      </c>
-      <c r="Q6">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -865,39 +844,36 @@
         <v>99</v>
       </c>
       <c r="K7">
+        <v>4.59511985013459</v>
+      </c>
+      <c r="L7">
         <v>11</v>
       </c>
-      <c r="L7">
-        <v>109244</v>
-      </c>
       <c r="M7">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N7">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O7">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P7">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q7">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,39 +894,36 @@
         <v>181</v>
       </c>
       <c r="K8">
+        <v>5.198497031265826</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="L8">
-        <v>103979</v>
-      </c>
       <c r="M8">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N8">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O8">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P8">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q8">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,39 +944,36 @@
         <v>193</v>
       </c>
       <c r="K9">
+        <v>5.262690188904886</v>
+      </c>
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
-        <v>8743</v>
-      </c>
       <c r="M9">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N9">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O9">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P9">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q9">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,39 +994,36 @@
         <v>200</v>
       </c>
       <c r="K10">
+        <v>5.298317366548036</v>
+      </c>
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="L10">
-        <v>63203</v>
-      </c>
       <c r="M10">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N10">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O10">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P10">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q10">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,39 +1044,36 @@
         <v>84</v>
       </c>
       <c r="K11">
+        <v>4.430816798843313</v>
+      </c>
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="L11">
-        <v>109244</v>
-      </c>
       <c r="M11">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N11">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O11">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P11">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q11">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1130,39 +1094,36 @@
         <v>104</v>
       </c>
       <c r="K12">
+        <v>4.644390899141372</v>
+      </c>
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="L12">
-        <v>11896</v>
-      </c>
       <c r="M12">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N12">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O12">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P12">
-        <v>15000</v>
-      </c>
-      <c r="Q12">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,39 +1144,36 @@
         <v>19</v>
       </c>
       <c r="K13">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="L13">
         <v>5</v>
       </c>
-      <c r="L13">
-        <v>86089</v>
-      </c>
       <c r="M13">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N13">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O13">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P13">
-        <v>13000</v>
-      </c>
-      <c r="Q13">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,39 +1194,36 @@
         <v>249</v>
       </c>
       <c r="K14">
+        <v>5.517452896464707</v>
+      </c>
+      <c r="L14">
         <v>6</v>
       </c>
-      <c r="L14">
-        <v>103979</v>
-      </c>
       <c r="M14">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N14">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O14">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P14">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q14">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,39 +1244,36 @@
         <v>294</v>
       </c>
       <c r="K15">
+        <v>5.683579767338681</v>
+      </c>
+      <c r="L15">
         <v>6</v>
       </c>
-      <c r="L15">
-        <v>8743</v>
-      </c>
       <c r="M15">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N15">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O15">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P15">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q15">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,39 +1294,36 @@
         <v>299</v>
       </c>
       <c r="K16">
+        <v>5.700443573390687</v>
+      </c>
+      <c r="L16">
         <v>6</v>
       </c>
-      <c r="L16">
-        <v>63203</v>
-      </c>
       <c r="M16">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N16">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O16">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P16">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q16">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,39 +1344,36 @@
         <v>65</v>
       </c>
       <c r="K17">
+        <v>4.174387269895637</v>
+      </c>
+      <c r="L17">
         <v>6</v>
       </c>
-      <c r="L17">
-        <v>109244</v>
-      </c>
       <c r="M17">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N17">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O17">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P17">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q17">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,39 +1394,36 @@
         <v>169</v>
       </c>
       <c r="K18">
+        <v>5.129898714923073</v>
+      </c>
+      <c r="L18">
         <v>6</v>
       </c>
-      <c r="L18">
-        <v>11896</v>
-      </c>
       <c r="M18">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N18">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O18">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P18">
-        <v>15000</v>
-      </c>
-      <c r="Q18">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,39 +1444,36 @@
         <v>31</v>
       </c>
       <c r="K19">
+        <v>3.433987204485146</v>
+      </c>
+      <c r="L19">
         <v>6</v>
       </c>
-      <c r="L19">
-        <v>86089</v>
-      </c>
       <c r="M19">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N19">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O19">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P19">
-        <v>13000</v>
-      </c>
-      <c r="Q19">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1554,39 +1494,36 @@
         <v>212</v>
       </c>
       <c r="K20">
+        <v>5.356586274672012</v>
+      </c>
+      <c r="L20">
         <v>7</v>
       </c>
-      <c r="L20">
-        <v>103979</v>
-      </c>
       <c r="M20">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N20">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O20">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P20">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q20">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1607,39 +1544,36 @@
         <v>274</v>
       </c>
       <c r="K21">
+        <v>5.61312810638807</v>
+      </c>
+      <c r="L21">
         <v>7</v>
       </c>
-      <c r="L21">
-        <v>8743</v>
-      </c>
       <c r="M21">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N21">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O21">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P21">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q21">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1660,39 +1594,36 @@
         <v>277</v>
       </c>
       <c r="K22">
+        <v>5.624017506187339</v>
+      </c>
+      <c r="L22">
         <v>7</v>
       </c>
-      <c r="L22">
-        <v>63203</v>
-      </c>
       <c r="M22">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N22">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O22">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P22">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q22">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,39 +1644,36 @@
         <v>77</v>
       </c>
       <c r="K23">
+        <v>4.343805421853684</v>
+      </c>
+      <c r="L23">
         <v>7</v>
       </c>
-      <c r="L23">
-        <v>109244</v>
-      </c>
       <c r="M23">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N23">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O23">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P23">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q23">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1766,39 +1694,36 @@
         <v>133</v>
       </c>
       <c r="K24">
+        <v>4.890349128221754</v>
+      </c>
+      <c r="L24">
         <v>7</v>
       </c>
-      <c r="L24">
-        <v>11896</v>
-      </c>
       <c r="M24">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N24">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O24">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P24">
-        <v>15000</v>
-      </c>
-      <c r="Q24">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1819,39 +1744,36 @@
         <v>47</v>
       </c>
       <c r="K25">
+        <v>3.850147601710058</v>
+      </c>
+      <c r="L25">
         <v>7</v>
       </c>
-      <c r="L25">
-        <v>86089</v>
-      </c>
       <c r="M25">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N25">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O25">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P25">
-        <v>13000</v>
-      </c>
-      <c r="Q25">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,39 +1794,36 @@
         <v>279</v>
       </c>
       <c r="K26">
+        <v>5.631211781821365</v>
+      </c>
+      <c r="L26">
         <v>8</v>
       </c>
-      <c r="L26">
-        <v>103979</v>
-      </c>
       <c r="M26">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N26">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O26">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P26">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q26">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1925,39 +1844,36 @@
         <v>208</v>
       </c>
       <c r="K27">
+        <v>5.337538079701318</v>
+      </c>
+      <c r="L27">
         <v>8</v>
       </c>
-      <c r="L27">
-        <v>8743</v>
-      </c>
       <c r="M27">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N27">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O27">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P27">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q27">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1978,39 +1894,36 @@
         <v>217</v>
       </c>
       <c r="K28">
+        <v>5.37989735354046</v>
+      </c>
+      <c r="L28">
         <v>8</v>
       </c>
-      <c r="L28">
-        <v>63203</v>
-      </c>
       <c r="M28">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N28">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O28">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P28">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q28">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2031,39 +1944,36 @@
         <v>78</v>
       </c>
       <c r="K29">
+        <v>4.356708826689592</v>
+      </c>
+      <c r="L29">
         <v>8</v>
       </c>
-      <c r="L29">
-        <v>109244</v>
-      </c>
       <c r="M29">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N29">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O29">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P29">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q29">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2084,39 +1994,36 @@
         <v>114</v>
       </c>
       <c r="K30">
+        <v>4.736198448394496</v>
+      </c>
+      <c r="L30">
         <v>8</v>
       </c>
-      <c r="L30">
-        <v>11896</v>
-      </c>
       <c r="M30">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N30">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O30">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P30">
-        <v>15000</v>
-      </c>
-      <c r="Q30">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2137,39 +2044,36 @@
         <v>40</v>
       </c>
       <c r="K31">
+        <v>3.688879454113936</v>
+      </c>
+      <c r="L31">
         <v>8</v>
       </c>
-      <c r="L31">
-        <v>86089</v>
-      </c>
       <c r="M31">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N31">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O31">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P31">
-        <v>13000</v>
-      </c>
-      <c r="Q31">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2190,39 +2094,36 @@
         <v>265</v>
       </c>
       <c r="K32">
+        <v>5.579729825986222</v>
+      </c>
+      <c r="L32">
         <v>9</v>
       </c>
-      <c r="L32">
-        <v>103979</v>
-      </c>
       <c r="M32">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N32">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O32">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P32">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q32">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2243,39 +2144,36 @@
         <v>226</v>
       </c>
       <c r="K33">
+        <v>5.420534999272286</v>
+      </c>
+      <c r="L33">
         <v>9</v>
       </c>
-      <c r="L33">
-        <v>8743</v>
-      </c>
       <c r="M33">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N33">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O33">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P33">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q33">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2296,39 +2194,36 @@
         <v>230</v>
       </c>
       <c r="K34">
+        <v>5.438079308923196</v>
+      </c>
+      <c r="L34">
         <v>9</v>
       </c>
-      <c r="L34">
-        <v>63203</v>
-      </c>
       <c r="M34">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N34">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O34">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P34">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q34">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2349,39 +2244,36 @@
         <v>68</v>
       </c>
       <c r="K35">
+        <v>4.219507705176107</v>
+      </c>
+      <c r="L35">
         <v>9</v>
       </c>
-      <c r="L35">
-        <v>109244</v>
-      </c>
       <c r="M35">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N35">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O35">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P35">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q35">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2402,39 +2294,36 @@
         <v>165</v>
       </c>
       <c r="K36">
+        <v>5.10594547390058</v>
+      </c>
+      <c r="L36">
         <v>9</v>
       </c>
-      <c r="L36">
-        <v>11896</v>
-      </c>
       <c r="M36">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N36">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O36">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P36">
-        <v>15000</v>
-      </c>
-      <c r="Q36">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2455,39 +2344,36 @@
         <v>51</v>
       </c>
       <c r="K37">
+        <v>3.931825632724326</v>
+      </c>
+      <c r="L37">
         <v>9</v>
       </c>
-      <c r="L37">
-        <v>86089</v>
-      </c>
       <c r="M37">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N37">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O37">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P37">
-        <v>13000</v>
-      </c>
-      <c r="Q37">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2508,39 +2394,36 @@
         <v>237</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>5.468060141135132</v>
       </c>
       <c r="L38">
-        <v>103979</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N38">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O38">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P38">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q38">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2561,39 +2444,36 @@
         <v>278</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>5.627621113690637</v>
       </c>
       <c r="L39">
-        <v>8743</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N39">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O39">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P39">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q39">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2614,39 +2494,36 @@
         <v>314</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>5.749392985908253</v>
       </c>
       <c r="L40">
-        <v>63203</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N40">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O40">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P40">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q40">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2667,39 +2544,36 @@
         <v>76</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>4.330733340286331</v>
       </c>
       <c r="L41">
-        <v>109244</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N41">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O41">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P41">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q41">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2720,39 +2594,36 @@
         <v>212</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>5.356586274672012</v>
       </c>
       <c r="L42">
-        <v>11896</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N42">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O42">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P42">
-        <v>15000</v>
-      </c>
-      <c r="Q42">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2773,39 +2644,36 @@
         <v>35</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>3.555348061489414</v>
       </c>
       <c r="L43">
-        <v>86089</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N43">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O43">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P43">
-        <v>13000</v>
-      </c>
-      <c r="Q43">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2826,39 +2694,36 @@
         <v>181</v>
       </c>
       <c r="K44">
+        <v>5.198497031265826</v>
+      </c>
+      <c r="L44">
         <v>10</v>
       </c>
-      <c r="L44">
-        <v>103979</v>
-      </c>
       <c r="M44">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N44">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O44">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P44">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q44">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2879,39 +2744,36 @@
         <v>178</v>
       </c>
       <c r="K45">
+        <v>5.181783550292085</v>
+      </c>
+      <c r="L45">
         <v>10</v>
       </c>
-      <c r="L45">
-        <v>8743</v>
-      </c>
       <c r="M45">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N45">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O45">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P45">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q45">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2932,39 +2794,36 @@
         <v>179</v>
       </c>
       <c r="K46">
+        <v>5.187385805840755</v>
+      </c>
+      <c r="L46">
         <v>10</v>
       </c>
-      <c r="L46">
-        <v>63203</v>
-      </c>
       <c r="M46">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N46">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O46">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P46">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q46">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2985,39 +2844,36 @@
         <v>67</v>
       </c>
       <c r="K47">
+        <v>4.204692619390966</v>
+      </c>
+      <c r="L47">
         <v>10</v>
       </c>
-      <c r="L47">
-        <v>109244</v>
-      </c>
       <c r="M47">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N47">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O47">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P47">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q47">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3038,39 +2894,36 @@
         <v>121</v>
       </c>
       <c r="K48">
+        <v>4.795790545596741</v>
+      </c>
+      <c r="L48">
         <v>10</v>
       </c>
-      <c r="L48">
-        <v>11896</v>
-      </c>
       <c r="M48">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N48">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O48">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P48">
-        <v>15000</v>
-      </c>
-      <c r="Q48">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3091,39 +2944,36 @@
         <v>95</v>
       </c>
       <c r="K49">
+        <v>4.553876891600541</v>
+      </c>
+      <c r="L49">
         <v>10</v>
       </c>
-      <c r="L49">
-        <v>86089</v>
-      </c>
       <c r="M49">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N49">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O49">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P49">
-        <v>13000</v>
-      </c>
-      <c r="Q49">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3144,39 +2994,36 @@
         <v>222</v>
       </c>
       <c r="K50">
+        <v>5.402677381872279</v>
+      </c>
+      <c r="L50">
         <v>11</v>
       </c>
-      <c r="L50">
-        <v>103979</v>
-      </c>
       <c r="M50">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N50">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O50">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P50">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q50">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3197,39 +3044,36 @@
         <v>255</v>
       </c>
       <c r="K51">
+        <v>5.541263545158426</v>
+      </c>
+      <c r="L51">
         <v>11</v>
       </c>
-      <c r="L51">
-        <v>8743</v>
-      </c>
       <c r="M51">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N51">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O51">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P51">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q51">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3250,39 +3094,36 @@
         <v>253</v>
       </c>
       <c r="K52">
+        <v>5.53338948872752</v>
+      </c>
+      <c r="L52">
         <v>11</v>
       </c>
-      <c r="L52">
-        <v>63203</v>
-      </c>
       <c r="M52">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N52">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O52">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P52">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q52">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3303,39 +3144,36 @@
         <v>63</v>
       </c>
       <c r="K53">
+        <v>4.143134726391533</v>
+      </c>
+      <c r="L53">
         <v>11</v>
       </c>
-      <c r="L53">
-        <v>109244</v>
-      </c>
       <c r="M53">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N53">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O53">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P53">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q53">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3356,39 +3194,36 @@
         <v>92</v>
       </c>
       <c r="K54">
+        <v>4.52178857704904</v>
+      </c>
+      <c r="L54">
         <v>11</v>
       </c>
-      <c r="L54">
-        <v>11896</v>
-      </c>
       <c r="M54">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N54">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O54">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P54">
-        <v>15000</v>
-      </c>
-      <c r="Q54">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3409,39 +3244,36 @@
         <v>23</v>
       </c>
       <c r="K55">
+        <v>3.13549421592915</v>
+      </c>
+      <c r="L55">
         <v>11</v>
       </c>
-      <c r="L55">
-        <v>86089</v>
-      </c>
       <c r="M55">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N55">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O55">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P55">
-        <v>13000</v>
-      </c>
-      <c r="Q55">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3462,39 +3294,36 @@
         <v>216</v>
       </c>
       <c r="K56">
+        <v>5.375278407684165</v>
+      </c>
+      <c r="L56">
         <v>12</v>
       </c>
-      <c r="L56">
-        <v>103979</v>
-      </c>
       <c r="M56">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N56">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O56">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P56">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q56">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3515,39 +3344,36 @@
         <v>244</v>
       </c>
       <c r="K57">
+        <v>5.497168225293202</v>
+      </c>
+      <c r="L57">
         <v>12</v>
       </c>
-      <c r="L57">
-        <v>8743</v>
-      </c>
       <c r="M57">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N57">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O57">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P57">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q57">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3568,39 +3394,36 @@
         <v>242</v>
       </c>
       <c r="K58">
+        <v>5.488937726156687</v>
+      </c>
+      <c r="L58">
         <v>12</v>
       </c>
-      <c r="L58">
-        <v>63203</v>
-      </c>
       <c r="M58">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N58">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O58">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P58">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q58">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3621,39 +3444,36 @@
         <v>96</v>
       </c>
       <c r="K59">
+        <v>4.564348191467836</v>
+      </c>
+      <c r="L59">
         <v>12</v>
       </c>
-      <c r="L59">
-        <v>109244</v>
-      </c>
       <c r="M59">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N59">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O59">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P59">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q59">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3674,39 +3494,36 @@
         <v>160</v>
       </c>
       <c r="K60">
+        <v>5.075173815233827</v>
+      </c>
+      <c r="L60">
         <v>12</v>
       </c>
-      <c r="L60">
-        <v>11896</v>
-      </c>
       <c r="M60">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N60">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O60">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P60">
-        <v>15000</v>
-      </c>
-      <c r="Q60">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3727,39 +3544,36 @@
         <v>20</v>
       </c>
       <c r="K61">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="L61">
         <v>12</v>
       </c>
-      <c r="L61">
-        <v>86089</v>
-      </c>
       <c r="M61">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N61">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O61">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P61">
-        <v>13000</v>
-      </c>
-      <c r="Q61">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3780,39 +3594,36 @@
         <v>244</v>
       </c>
       <c r="K62">
+        <v>5.497168225293202</v>
+      </c>
+      <c r="L62">
         <v>2</v>
       </c>
-      <c r="L62">
-        <v>103979</v>
-      </c>
       <c r="M62">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N62">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O62">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P62">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q62">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3833,39 +3644,36 @@
         <v>261</v>
       </c>
       <c r="K63">
+        <v>5.564520407322694</v>
+      </c>
+      <c r="L63">
         <v>2</v>
       </c>
-      <c r="L63">
-        <v>8743</v>
-      </c>
       <c r="M63">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N63">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O63">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P63">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q63">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3886,39 +3694,36 @@
         <v>252</v>
       </c>
       <c r="K64">
+        <v>5.529429087511423</v>
+      </c>
+      <c r="L64">
         <v>2</v>
       </c>
-      <c r="L64">
-        <v>63203</v>
-      </c>
       <c r="M64">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N64">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O64">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P64">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q64">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3939,39 +3744,36 @@
         <v>98</v>
       </c>
       <c r="K65">
+        <v>4.584967478670572</v>
+      </c>
+      <c r="L65">
         <v>2</v>
       </c>
-      <c r="L65">
-        <v>109244</v>
-      </c>
       <c r="M65">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N65">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O65">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P65">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q65">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3992,39 +3794,36 @@
         <v>211</v>
       </c>
       <c r="K66">
+        <v>5.351858133476067</v>
+      </c>
+      <c r="L66">
         <v>2</v>
       </c>
-      <c r="L66">
-        <v>11896</v>
-      </c>
       <c r="M66">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N66">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O66">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P66">
-        <v>15000</v>
-      </c>
-      <c r="Q66">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4045,39 +3844,36 @@
         <v>17</v>
       </c>
       <c r="K67">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="L67">
         <v>2</v>
       </c>
-      <c r="L67">
-        <v>86089</v>
-      </c>
       <c r="M67">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N67">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O67">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P67">
-        <v>13000</v>
-      </c>
-      <c r="Q67">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4098,39 +3894,36 @@
         <v>319</v>
       </c>
       <c r="K68">
+        <v>5.765191102784844</v>
+      </c>
+      <c r="L68">
         <v>3</v>
       </c>
-      <c r="L68">
-        <v>103979</v>
-      </c>
       <c r="M68">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N68">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O68">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P68">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q68">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4151,39 +3944,36 @@
         <v>248</v>
       </c>
       <c r="K69">
+        <v>5.513428746164982</v>
+      </c>
+      <c r="L69">
         <v>3</v>
       </c>
-      <c r="L69">
-        <v>8743</v>
-      </c>
       <c r="M69">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N69">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O69">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P69">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q69">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4204,39 +3994,36 @@
         <v>244</v>
       </c>
       <c r="K70">
+        <v>5.497168225293202</v>
+      </c>
+      <c r="L70">
         <v>3</v>
       </c>
-      <c r="L70">
-        <v>63203</v>
-      </c>
       <c r="M70">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N70">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O70">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P70">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q70">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4257,39 +4044,36 @@
         <v>123</v>
       </c>
       <c r="K71">
+        <v>4.812184355372417</v>
+      </c>
+      <c r="L71">
         <v>3</v>
       </c>
-      <c r="L71">
-        <v>109244</v>
-      </c>
       <c r="M71">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N71">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O71">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P71">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q71">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4310,39 +4094,36 @@
         <v>250</v>
       </c>
       <c r="K72">
+        <v>5.521460917862246</v>
+      </c>
+      <c r="L72">
         <v>3</v>
       </c>
-      <c r="L72">
-        <v>11896</v>
-      </c>
       <c r="M72">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N72">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O72">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P72">
-        <v>15000</v>
-      </c>
-      <c r="Q72">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4363,39 +4144,36 @@
         <v>20</v>
       </c>
       <c r="K73">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="L73">
         <v>3</v>
       </c>
-      <c r="L73">
-        <v>86089</v>
-      </c>
       <c r="M73">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N73">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O73">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P73">
-        <v>13000</v>
-      </c>
-      <c r="Q73">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4416,39 +4194,36 @@
         <v>247</v>
       </c>
       <c r="K74">
+        <v>5.509388336627977</v>
+      </c>
+      <c r="L74">
         <v>4</v>
       </c>
-      <c r="L74">
-        <v>103979</v>
-      </c>
       <c r="M74">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N74">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O74">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P74">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q74">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4469,39 +4244,36 @@
         <v>226</v>
       </c>
       <c r="K75">
+        <v>5.420534999272286</v>
+      </c>
+      <c r="L75">
         <v>4</v>
       </c>
-      <c r="L75">
-        <v>8743</v>
-      </c>
       <c r="M75">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N75">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O75">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P75">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q75">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4522,39 +4294,36 @@
         <v>225</v>
       </c>
       <c r="K76">
+        <v>5.41610040220442</v>
+      </c>
+      <c r="L76">
         <v>4</v>
       </c>
-      <c r="L76">
-        <v>63203</v>
-      </c>
       <c r="M76">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N76">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O76">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P76">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q76">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4575,39 +4344,36 @@
         <v>89</v>
       </c>
       <c r="K77">
+        <v>4.48863636973214</v>
+      </c>
+      <c r="L77">
         <v>4</v>
       </c>
-      <c r="L77">
-        <v>109244</v>
-      </c>
       <c r="M77">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N77">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O77">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P77">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q77">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4628,39 +4394,36 @@
         <v>167</v>
       </c>
       <c r="K78">
+        <v>5.117993812416755</v>
+      </c>
+      <c r="L78">
         <v>4</v>
       </c>
-      <c r="L78">
-        <v>11896</v>
-      </c>
       <c r="M78">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N78">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O78">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P78">
-        <v>15000</v>
-      </c>
-      <c r="Q78">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4681,39 +4444,36 @@
         <v>40</v>
       </c>
       <c r="K79">
+        <v>3.688879454113936</v>
+      </c>
+      <c r="L79">
         <v>4</v>
       </c>
-      <c r="L79">
-        <v>86089</v>
-      </c>
       <c r="M79">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N79">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O79">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P79">
-        <v>13000</v>
-      </c>
-      <c r="Q79">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4734,39 +4494,36 @@
         <v>245</v>
       </c>
       <c r="K80">
+        <v>5.501258210544727</v>
+      </c>
+      <c r="L80">
         <v>5</v>
       </c>
-      <c r="L80">
-        <v>103979</v>
-      </c>
       <c r="M80">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N80">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O80">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P80">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q80">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4787,39 +4544,36 @@
         <v>190</v>
       </c>
       <c r="K81">
+        <v>5.247024072160486</v>
+      </c>
+      <c r="L81">
         <v>5</v>
       </c>
-      <c r="L81">
-        <v>8743</v>
-      </c>
       <c r="M81">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N81">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O81">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P81">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q81">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4840,39 +4594,36 @@
         <v>194</v>
       </c>
       <c r="K82">
+        <v>5.267858159063328</v>
+      </c>
+      <c r="L82">
         <v>5</v>
       </c>
-      <c r="L82">
-        <v>63203</v>
-      </c>
       <c r="M82">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N82">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O82">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P82">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q82">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4893,39 +4644,36 @@
         <v>74</v>
       </c>
       <c r="K83">
+        <v>4.30406509320417</v>
+      </c>
+      <c r="L83">
         <v>5</v>
       </c>
-      <c r="L83">
-        <v>109244</v>
-      </c>
       <c r="M83">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N83">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O83">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P83">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q83">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4946,39 +4694,36 @@
         <v>146</v>
       </c>
       <c r="K84">
+        <v>4.983606621708336</v>
+      </c>
+      <c r="L84">
         <v>5</v>
       </c>
-      <c r="L84">
-        <v>11896</v>
-      </c>
       <c r="M84">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N84">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O84">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P84">
-        <v>15000</v>
-      </c>
-      <c r="Q84">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4999,39 +4744,36 @@
         <v>40</v>
       </c>
       <c r="K85">
+        <v>3.688879454113936</v>
+      </c>
+      <c r="L85">
         <v>5</v>
       </c>
-      <c r="L85">
-        <v>86089</v>
-      </c>
       <c r="M85">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N85">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O85">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P85">
-        <v>13000</v>
-      </c>
-      <c r="Q85">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5052,39 +4794,36 @@
         <v>198</v>
       </c>
       <c r="K86">
+        <v>5.288267030694535</v>
+      </c>
+      <c r="L86">
         <v>6</v>
       </c>
-      <c r="L86">
-        <v>103979</v>
-      </c>
       <c r="M86">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N86">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O86">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P86">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q86">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5105,39 +4844,36 @@
         <v>181</v>
       </c>
       <c r="K87">
+        <v>5.198497031265826</v>
+      </c>
+      <c r="L87">
         <v>6</v>
       </c>
-      <c r="L87">
-        <v>8743</v>
-      </c>
       <c r="M87">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N87">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O87">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P87">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q87">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5158,39 +4894,36 @@
         <v>183</v>
       </c>
       <c r="K88">
+        <v>5.209486152841421</v>
+      </c>
+      <c r="L88">
         <v>6</v>
       </c>
-      <c r="L88">
-        <v>63203</v>
-      </c>
       <c r="M88">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N88">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O88">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P88">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q88">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5211,39 +4944,36 @@
         <v>92</v>
       </c>
       <c r="K89">
+        <v>4.52178857704904</v>
+      </c>
+      <c r="L89">
         <v>6</v>
       </c>
-      <c r="L89">
-        <v>109244</v>
-      </c>
       <c r="M89">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N89">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O89">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P89">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q89">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5264,39 +4994,36 @@
         <v>108</v>
       </c>
       <c r="K90">
+        <v>4.68213122712422</v>
+      </c>
+      <c r="L90">
         <v>6</v>
       </c>
-      <c r="L90">
-        <v>11896</v>
-      </c>
       <c r="M90">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N90">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O90">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P90">
-        <v>15000</v>
-      </c>
-      <c r="Q90">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5317,39 +5044,36 @@
         <v>19</v>
       </c>
       <c r="K91">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="L91">
         <v>6</v>
       </c>
-      <c r="L91">
-        <v>86089</v>
-      </c>
       <c r="M91">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N91">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O91">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P91">
-        <v>13000</v>
-      </c>
-      <c r="Q91">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5370,39 +5094,36 @@
         <v>201</v>
       </c>
       <c r="K92">
+        <v>5.303304908059076</v>
+      </c>
+      <c r="L92">
         <v>7</v>
       </c>
-      <c r="L92">
-        <v>103979</v>
-      </c>
       <c r="M92">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N92">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O92">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P92">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q92">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5423,39 +5144,36 @@
         <v>190</v>
       </c>
       <c r="K93">
+        <v>5.247024072160486</v>
+      </c>
+      <c r="L93">
         <v>7</v>
       </c>
-      <c r="L93">
-        <v>8743</v>
-      </c>
       <c r="M93">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N93">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O93">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P93">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q93">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5476,39 +5194,36 @@
         <v>190</v>
       </c>
       <c r="K94">
+        <v>5.247024072160486</v>
+      </c>
+      <c r="L94">
         <v>7</v>
       </c>
-      <c r="L94">
-        <v>63203</v>
-      </c>
       <c r="M94">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N94">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O94">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P94">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q94">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5529,39 +5244,36 @@
         <v>86</v>
       </c>
       <c r="K95">
+        <v>4.454347296253507</v>
+      </c>
+      <c r="L95">
         <v>7</v>
       </c>
-      <c r="L95">
-        <v>109244</v>
-      </c>
       <c r="M95">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N95">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O95">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P95">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q95">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5582,39 +5294,36 @@
         <v>103</v>
       </c>
       <c r="K96">
+        <v>4.634728988229636</v>
+      </c>
+      <c r="L96">
         <v>7</v>
       </c>
-      <c r="L96">
-        <v>11896</v>
-      </c>
       <c r="M96">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N96">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O96">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P96">
-        <v>15000</v>
-      </c>
-      <c r="Q96">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5635,39 +5344,36 @@
         <v>21</v>
       </c>
       <c r="K97">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="L97">
         <v>7</v>
       </c>
-      <c r="L97">
-        <v>86089</v>
-      </c>
       <c r="M97">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N97">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O97">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P97">
-        <v>13000</v>
-      </c>
-      <c r="Q97">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5688,39 +5394,36 @@
         <v>219</v>
       </c>
       <c r="K98">
+        <v>5.389071729816501</v>
+      </c>
+      <c r="L98">
         <v>8</v>
       </c>
-      <c r="L98">
-        <v>103979</v>
-      </c>
       <c r="M98">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N98">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O98">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P98">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q98">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5741,39 +5444,36 @@
         <v>177</v>
       </c>
       <c r="K99">
+        <v>5.176149732573829</v>
+      </c>
+      <c r="L99">
         <v>8</v>
       </c>
-      <c r="L99">
-        <v>8743</v>
-      </c>
       <c r="M99">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N99">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O99">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P99">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q99">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5794,39 +5494,36 @@
         <v>171</v>
       </c>
       <c r="K100">
+        <v>5.14166355650266</v>
+      </c>
+      <c r="L100">
         <v>8</v>
       </c>
-      <c r="L100">
-        <v>63203</v>
-      </c>
       <c r="M100">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N100">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O100">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P100">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q100">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5847,39 +5544,36 @@
         <v>89</v>
       </c>
       <c r="K101">
+        <v>4.48863636973214</v>
+      </c>
+      <c r="L101">
         <v>8</v>
       </c>
-      <c r="L101">
-        <v>109244</v>
-      </c>
       <c r="M101">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N101">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O101">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P101">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q101">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5900,39 +5594,36 @@
         <v>74</v>
       </c>
       <c r="K102">
+        <v>4.30406509320417</v>
+      </c>
+      <c r="L102">
         <v>8</v>
       </c>
-      <c r="L102">
-        <v>11896</v>
-      </c>
       <c r="M102">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N102">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O102">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P102">
-        <v>15000</v>
-      </c>
-      <c r="Q102">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5953,39 +5644,36 @@
         <v>22</v>
       </c>
       <c r="K103">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="L103">
         <v>8</v>
       </c>
-      <c r="L103">
-        <v>86089</v>
-      </c>
       <c r="M103">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N103">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O103">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P103">
-        <v>13000</v>
-      </c>
-      <c r="Q103">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6006,39 +5694,36 @@
         <v>178</v>
       </c>
       <c r="K104">
+        <v>5.181783550292085</v>
+      </c>
+      <c r="L104">
         <v>9</v>
       </c>
-      <c r="L104">
-        <v>103979</v>
-      </c>
       <c r="M104">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N104">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O104">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P104">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q104">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6059,39 +5744,36 @@
         <v>165</v>
       </c>
       <c r="K105">
+        <v>5.10594547390058</v>
+      </c>
+      <c r="L105">
         <v>9</v>
       </c>
-      <c r="L105">
-        <v>8743</v>
-      </c>
       <c r="M105">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N105">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O105">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P105">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q105">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6112,39 +5794,36 @@
         <v>164</v>
       </c>
       <c r="K106">
+        <v>5.099866427824199</v>
+      </c>
+      <c r="L106">
         <v>9</v>
       </c>
-      <c r="L106">
-        <v>63203</v>
-      </c>
       <c r="M106">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N106">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O106">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P106">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q106">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6165,39 +5844,36 @@
         <v>110</v>
       </c>
       <c r="K107">
+        <v>4.700480365792417</v>
+      </c>
+      <c r="L107">
         <v>9</v>
       </c>
-      <c r="L107">
-        <v>109244</v>
-      </c>
       <c r="M107">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N107">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O107">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P107">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q107">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6218,39 +5894,36 @@
         <v>84</v>
       </c>
       <c r="K108">
+        <v>4.430816798843313</v>
+      </c>
+      <c r="L108">
         <v>9</v>
       </c>
-      <c r="L108">
-        <v>11896</v>
-      </c>
       <c r="M108">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N108">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O108">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P108">
-        <v>15000</v>
-      </c>
-      <c r="Q108">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6271,39 +5944,36 @@
         <v>42</v>
       </c>
       <c r="K109">
+        <v>3.737669618283368</v>
+      </c>
+      <c r="L109">
         <v>9</v>
       </c>
-      <c r="L109">
-        <v>86089</v>
-      </c>
       <c r="M109">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N109">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O109">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P109">
-        <v>13000</v>
-      </c>
-      <c r="Q109">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6324,39 +5994,36 @@
         <v>204</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>5.318119993844216</v>
       </c>
       <c r="L110">
-        <v>103979</v>
+        <v>1</v>
       </c>
       <c r="M110">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N110">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O110">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P110">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q110">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6377,39 +6044,36 @@
         <v>144</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>4.969813299576001</v>
       </c>
       <c r="L111">
-        <v>8743</v>
+        <v>1</v>
       </c>
       <c r="M111">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N111">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O111">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P111">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q111">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6430,39 +6094,36 @@
         <v>143</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>4.962844630259907</v>
       </c>
       <c r="L112">
-        <v>63203</v>
+        <v>1</v>
       </c>
       <c r="M112">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N112">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O112">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P112">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q112">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6483,39 +6144,36 @@
         <v>33</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>3.49650756146648</v>
       </c>
       <c r="L113">
-        <v>109244</v>
+        <v>1</v>
       </c>
       <c r="M113">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N113">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O113">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P113">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q113">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6536,39 +6194,36 @@
         <v>93</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>4.532599493153256</v>
       </c>
       <c r="L114">
-        <v>11896</v>
+        <v>1</v>
       </c>
       <c r="M114">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N114">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O114">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P114">
-        <v>15000</v>
-      </c>
-      <c r="Q114">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6589,39 +6244,36 @@
         <v>35</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>3.555348061489414</v>
       </c>
       <c r="L115">
-        <v>86089</v>
+        <v>1</v>
       </c>
       <c r="M115">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N115">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O115">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P115">
-        <v>13000</v>
-      </c>
-      <c r="Q115">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6642,39 +6294,36 @@
         <v>81</v>
       </c>
       <c r="K116">
+        <v>4.394449154672439</v>
+      </c>
+      <c r="L116">
         <v>10</v>
       </c>
-      <c r="L116">
-        <v>103979</v>
-      </c>
       <c r="M116">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N116">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O116">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P116">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q116">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6695,39 +6344,36 @@
         <v>102</v>
       </c>
       <c r="K117">
+        <v>4.624972813284271</v>
+      </c>
+      <c r="L117">
         <v>10</v>
       </c>
-      <c r="L117">
-        <v>8743</v>
-      </c>
       <c r="M117">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N117">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O117">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P117">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q117">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6748,39 +6394,36 @@
         <v>106</v>
       </c>
       <c r="K118">
+        <v>4.663439094112067</v>
+      </c>
+      <c r="L118">
         <v>10</v>
       </c>
-      <c r="L118">
-        <v>63203</v>
-      </c>
       <c r="M118">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N118">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O118">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P118">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q118">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6801,39 +6444,36 @@
         <v>81</v>
       </c>
       <c r="K119">
+        <v>4.394449154672439</v>
+      </c>
+      <c r="L119">
         <v>10</v>
       </c>
-      <c r="L119">
-        <v>109244</v>
-      </c>
       <c r="M119">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N119">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O119">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P119">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q119">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6854,39 +6494,36 @@
         <v>91</v>
       </c>
       <c r="K120">
+        <v>4.51085950651685</v>
+      </c>
+      <c r="L120">
         <v>10</v>
       </c>
-      <c r="L120">
-        <v>11896</v>
-      </c>
       <c r="M120">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N120">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O120">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P120">
-        <v>15000</v>
-      </c>
-      <c r="Q120">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6907,39 +6544,36 @@
         <v>15</v>
       </c>
       <c r="K121">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="L121">
         <v>10</v>
       </c>
-      <c r="L121">
-        <v>86089</v>
-      </c>
       <c r="M121">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N121">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O121">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P121">
-        <v>13000</v>
-      </c>
-      <c r="Q121">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6960,39 +6594,36 @@
         <v>137</v>
       </c>
       <c r="K122">
+        <v>4.919980925828125</v>
+      </c>
+      <c r="L122">
         <v>2</v>
       </c>
-      <c r="L122">
-        <v>103979</v>
-      </c>
       <c r="M122">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N122">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O122">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P122">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q122">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -7013,39 +6644,36 @@
         <v>149</v>
       </c>
       <c r="K123">
+        <v>5.003946305945459</v>
+      </c>
+      <c r="L123">
         <v>2</v>
       </c>
-      <c r="L123">
-        <v>8743</v>
-      </c>
       <c r="M123">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N123">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O123">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P123">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q123">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -7066,39 +6694,36 @@
         <v>153</v>
       </c>
       <c r="K124">
+        <v>5.030437921392435</v>
+      </c>
+      <c r="L124">
         <v>2</v>
       </c>
-      <c r="L124">
-        <v>63203</v>
-      </c>
       <c r="M124">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N124">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O124">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P124">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q124">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -7119,39 +6744,36 @@
         <v>38</v>
       </c>
       <c r="K125">
+        <v>3.637586159726386</v>
+      </c>
+      <c r="L125">
         <v>2</v>
       </c>
-      <c r="L125">
-        <v>109244</v>
-      </c>
       <c r="M125">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N125">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O125">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P125">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q125">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -7172,39 +6794,36 @@
         <v>126</v>
       </c>
       <c r="K126">
+        <v>4.836281906951478</v>
+      </c>
+      <c r="L126">
         <v>2</v>
       </c>
-      <c r="L126">
-        <v>11896</v>
-      </c>
       <c r="M126">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N126">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O126">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P126">
-        <v>15000</v>
-      </c>
-      <c r="Q126">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -7225,39 +6844,36 @@
         <v>23</v>
       </c>
       <c r="K127">
+        <v>3.13549421592915</v>
+      </c>
+      <c r="L127">
         <v>2</v>
       </c>
-      <c r="L127">
-        <v>86089</v>
-      </c>
       <c r="M127">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N127">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O127">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P127">
-        <v>13000</v>
-      </c>
-      <c r="Q127">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7278,39 +6894,36 @@
         <v>167</v>
       </c>
       <c r="K128">
+        <v>5.117993812416755</v>
+      </c>
+      <c r="L128">
         <v>3</v>
       </c>
-      <c r="L128">
-        <v>103979</v>
-      </c>
       <c r="M128">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N128">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O128">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P128">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q128">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7331,39 +6944,36 @@
         <v>187</v>
       </c>
       <c r="K129">
+        <v>5.231108616854587</v>
+      </c>
+      <c r="L129">
         <v>3</v>
       </c>
-      <c r="L129">
-        <v>8743</v>
-      </c>
       <c r="M129">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N129">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O129">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P129">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q129">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7384,39 +6994,36 @@
         <v>187</v>
       </c>
       <c r="K130">
+        <v>5.231108616854587</v>
+      </c>
+      <c r="L130">
         <v>3</v>
       </c>
-      <c r="L130">
-        <v>63203</v>
-      </c>
       <c r="M130">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N130">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O130">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P130">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q130">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7437,39 +7044,36 @@
         <v>59</v>
       </c>
       <c r="K131">
+        <v>4.07753744390572</v>
+      </c>
+      <c r="L131">
         <v>3</v>
       </c>
-      <c r="L131">
-        <v>109244</v>
-      </c>
       <c r="M131">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N131">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O131">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P131">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q131">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7490,39 +7094,36 @@
         <v>127</v>
       </c>
       <c r="K132">
+        <v>4.844187086458591</v>
+      </c>
+      <c r="L132">
         <v>3</v>
       </c>
-      <c r="L132">
-        <v>11896</v>
-      </c>
       <c r="M132">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N132">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O132">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P132">
-        <v>15000</v>
-      </c>
-      <c r="Q132">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7543,39 +7144,36 @@
         <v>25</v>
       </c>
       <c r="K133">
+        <v>3.218875824868201</v>
+      </c>
+      <c r="L133">
         <v>3</v>
       </c>
-      <c r="L133">
-        <v>86089</v>
-      </c>
       <c r="M133">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N133">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O133">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P133">
-        <v>13000</v>
-      </c>
-      <c r="Q133">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7596,39 +7194,36 @@
         <v>149</v>
       </c>
       <c r="K134">
+        <v>5.003946305945459</v>
+      </c>
+      <c r="L134">
         <v>4</v>
       </c>
-      <c r="L134">
-        <v>103979</v>
-      </c>
       <c r="M134">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N134">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O134">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P134">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q134">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7649,39 +7244,36 @@
         <v>145</v>
       </c>
       <c r="K135">
+        <v>4.976733742420574</v>
+      </c>
+      <c r="L135">
         <v>4</v>
       </c>
-      <c r="L135">
-        <v>8743</v>
-      </c>
       <c r="M135">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N135">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O135">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P135">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q135">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7702,39 +7294,36 @@
         <v>145</v>
       </c>
       <c r="K136">
+        <v>4.976733742420574</v>
+      </c>
+      <c r="L136">
         <v>4</v>
       </c>
-      <c r="L136">
-        <v>63203</v>
-      </c>
       <c r="M136">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N136">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O136">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P136">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q136">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7755,39 +7344,36 @@
         <v>24</v>
       </c>
       <c r="K137">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="L137">
         <v>4</v>
       </c>
-      <c r="L137">
-        <v>109244</v>
-      </c>
       <c r="M137">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N137">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O137">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P137">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q137">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7808,39 +7394,36 @@
         <v>92</v>
       </c>
       <c r="K138">
+        <v>4.52178857704904</v>
+      </c>
+      <c r="L138">
         <v>4</v>
       </c>
-      <c r="L138">
-        <v>11896</v>
-      </c>
       <c r="M138">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N138">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O138">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P138">
-        <v>15000</v>
-      </c>
-      <c r="Q138">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7861,39 +7444,36 @@
         <v>25</v>
       </c>
       <c r="K139">
+        <v>3.218875824868201</v>
+      </c>
+      <c r="L139">
         <v>4</v>
       </c>
-      <c r="L139">
-        <v>86089</v>
-      </c>
       <c r="M139">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N139">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O139">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P139">
-        <v>13000</v>
-      </c>
-      <c r="Q139">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7914,39 +7494,36 @@
         <v>84</v>
       </c>
       <c r="K140">
+        <v>4.430816798843313</v>
+      </c>
+      <c r="L140">
         <v>5</v>
       </c>
-      <c r="L140">
-        <v>103979</v>
-      </c>
       <c r="M140">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N140">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O140">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P140">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q140">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7967,39 +7544,36 @@
         <v>73</v>
       </c>
       <c r="K141">
+        <v>4.290459441148391</v>
+      </c>
+      <c r="L141">
         <v>5</v>
       </c>
-      <c r="L141">
-        <v>8743</v>
-      </c>
       <c r="M141">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N141">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O141">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P141">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q141">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -8020,39 +7594,36 @@
         <v>71</v>
       </c>
       <c r="K142">
+        <v>4.262679877041315</v>
+      </c>
+      <c r="L142">
         <v>5</v>
       </c>
-      <c r="L142">
-        <v>63203</v>
-      </c>
       <c r="M142">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N142">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O142">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P142">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q142">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -8073,39 +7644,36 @@
         <v>20</v>
       </c>
       <c r="K143">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="L143">
         <v>5</v>
       </c>
-      <c r="L143">
-        <v>109244</v>
-      </c>
       <c r="M143">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N143">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O143">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P143">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q143">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -8126,39 +7694,36 @@
         <v>46</v>
       </c>
       <c r="K144">
+        <v>3.828641396489095</v>
+      </c>
+      <c r="L144">
         <v>5</v>
       </c>
-      <c r="L144">
-        <v>11896</v>
-      </c>
       <c r="M144">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N144">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O144">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P144">
-        <v>15000</v>
-      </c>
-      <c r="Q144">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -8179,39 +7744,36 @@
         <v>12</v>
       </c>
       <c r="K145">
+        <v>2.484906649788</v>
+      </c>
+      <c r="L145">
         <v>5</v>
       </c>
-      <c r="L145">
-        <v>86089</v>
-      </c>
       <c r="M145">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N145">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O145">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P145">
-        <v>13000</v>
-      </c>
-      <c r="Q145">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -8232,39 +7794,36 @@
         <v>74</v>
       </c>
       <c r="K146">
+        <v>4.30406509320417</v>
+      </c>
+      <c r="L146">
         <v>6</v>
       </c>
-      <c r="L146">
-        <v>103979</v>
-      </c>
       <c r="M146">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N146">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O146">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P146">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q146">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -8285,39 +7844,36 @@
         <v>115</v>
       </c>
       <c r="K147">
+        <v>4.74493212836325</v>
+      </c>
+      <c r="L147">
         <v>6</v>
       </c>
-      <c r="L147">
-        <v>8743</v>
-      </c>
       <c r="M147">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N147">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O147">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P147">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q147">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -8338,39 +7894,36 @@
         <v>105</v>
       </c>
       <c r="K148">
+        <v>4.653960350157523</v>
+      </c>
+      <c r="L148">
         <v>6</v>
       </c>
-      <c r="L148">
-        <v>63203</v>
-      </c>
       <c r="M148">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N148">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O148">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P148">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q148">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -8391,39 +7944,36 @@
         <v>45</v>
       </c>
       <c r="K149">
+        <v>3.80666248977032</v>
+      </c>
+      <c r="L149">
         <v>6</v>
       </c>
-      <c r="L149">
-        <v>109244</v>
-      </c>
       <c r="M149">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N149">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O149">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P149">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q149">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -8444,39 +7994,36 @@
         <v>99</v>
       </c>
       <c r="K150">
+        <v>4.59511985013459</v>
+      </c>
+      <c r="L150">
         <v>6</v>
       </c>
-      <c r="L150">
-        <v>11896</v>
-      </c>
       <c r="M150">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N150">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O150">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P150">
-        <v>15000</v>
-      </c>
-      <c r="Q150">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -8497,39 +8044,36 @@
         <v>18</v>
       </c>
       <c r="K151">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="L151">
         <v>6</v>
       </c>
-      <c r="L151">
-        <v>86089</v>
-      </c>
       <c r="M151">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N151">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O151">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P151">
-        <v>13000</v>
-      </c>
-      <c r="Q151">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -8550,39 +8094,36 @@
         <v>83</v>
       </c>
       <c r="K152">
+        <v>4.418840607796598</v>
+      </c>
+      <c r="L152">
         <v>7</v>
       </c>
-      <c r="L152">
-        <v>103979</v>
-      </c>
       <c r="M152">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N152">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O152">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P152">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q152">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -8603,39 +8144,36 @@
         <v>119</v>
       </c>
       <c r="K153">
+        <v>4.77912349311153</v>
+      </c>
+      <c r="L153">
         <v>7</v>
       </c>
-      <c r="L153">
-        <v>8743</v>
-      </c>
       <c r="M153">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N153">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O153">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P153">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q153">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -8656,39 +8194,36 @@
         <v>118</v>
       </c>
       <c r="K154">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L154">
         <v>7</v>
       </c>
-      <c r="L154">
-        <v>63203</v>
-      </c>
       <c r="M154">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N154">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O154">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P154">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q154">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -8709,39 +8244,36 @@
         <v>60</v>
       </c>
       <c r="K155">
+        <v>4.0943445622221</v>
+      </c>
+      <c r="L155">
         <v>7</v>
       </c>
-      <c r="L155">
-        <v>109244</v>
-      </c>
       <c r="M155">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N155">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O155">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P155">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q155">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -8762,39 +8294,36 @@
         <v>71</v>
       </c>
       <c r="K156">
+        <v>4.262679877041315</v>
+      </c>
+      <c r="L156">
         <v>7</v>
       </c>
-      <c r="L156">
-        <v>11896</v>
-      </c>
       <c r="M156">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N156">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O156">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P156">
-        <v>15000</v>
-      </c>
-      <c r="Q156">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8815,39 +8344,36 @@
         <v>22</v>
       </c>
       <c r="K157">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="L157">
         <v>7</v>
       </c>
-      <c r="L157">
-        <v>86089</v>
-      </c>
       <c r="M157">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N157">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O157">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P157">
-        <v>13000</v>
-      </c>
-      <c r="Q157">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8868,39 +8394,36 @@
         <v>111</v>
       </c>
       <c r="K158">
+        <v>4.709530201312334</v>
+      </c>
+      <c r="L158">
         <v>8</v>
       </c>
-      <c r="L158">
-        <v>103979</v>
-      </c>
       <c r="M158">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N158">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O158">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P158">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q158">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8921,39 +8444,36 @@
         <v>82</v>
       </c>
       <c r="K159">
+        <v>4.406719247264253</v>
+      </c>
+      <c r="L159">
         <v>8</v>
       </c>
-      <c r="L159">
-        <v>8743</v>
-      </c>
       <c r="M159">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N159">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O159">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P159">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q159">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8974,39 +8494,36 @@
         <v>83</v>
       </c>
       <c r="K160">
+        <v>4.418840607796598</v>
+      </c>
+      <c r="L160">
         <v>8</v>
       </c>
-      <c r="L160">
-        <v>63203</v>
-      </c>
       <c r="M160">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N160">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O160">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P160">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q160">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -9027,39 +8544,36 @@
         <v>59</v>
       </c>
       <c r="K161">
+        <v>4.07753744390572</v>
+      </c>
+      <c r="L161">
         <v>8</v>
       </c>
-      <c r="L161">
-        <v>109244</v>
-      </c>
       <c r="M161">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N161">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O161">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P161">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q161">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -9080,39 +8594,36 @@
         <v>75</v>
       </c>
       <c r="K162">
+        <v>4.31748811353631</v>
+      </c>
+      <c r="L162">
         <v>8</v>
       </c>
-      <c r="L162">
-        <v>11896</v>
-      </c>
       <c r="M162">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N162">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O162">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P162">
-        <v>15000</v>
-      </c>
-      <c r="Q162">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -9133,39 +8644,36 @@
         <v>20</v>
       </c>
       <c r="K163">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="L163">
         <v>8</v>
       </c>
-      <c r="L163">
-        <v>86089</v>
-      </c>
       <c r="M163">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N163">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O163">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P163">
-        <v>13000</v>
-      </c>
-      <c r="Q163">
-        <v>9.472704636443673</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17">
+        <v>9.769956159911606</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -9186,39 +8694,36 @@
         <v>59</v>
       </c>
       <c r="K164">
+        <v>4.07753744390572</v>
+      </c>
+      <c r="L164">
         <v>9</v>
       </c>
-      <c r="L164">
-        <v>103979</v>
-      </c>
       <c r="M164">
-        <v>11.55194423465738</v>
+        <v>109764</v>
       </c>
       <c r="N164">
-        <v>14432.96050163975</v>
+        <v>11.60608788544437</v>
       </c>
       <c r="O164">
-        <v>9.57726979369367</v>
+        <v>19549.64287015779</v>
       </c>
       <c r="P164">
-        <v>17233.06629223208</v>
-      </c>
-      <c r="Q164">
-        <v>9.754585276093193</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17">
+        <v>9.880712297735549</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
         <v>43</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165" t="s">
-        <v>44</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -9239,39 +8744,36 @@
         <v>112</v>
       </c>
       <c r="K165">
+        <v>4.718498871295094</v>
+      </c>
+      <c r="L165">
         <v>9</v>
       </c>
-      <c r="L165">
-        <v>8743</v>
-      </c>
       <c r="M165">
-        <v>9.076008659180891</v>
+        <v>9613</v>
       </c>
       <c r="N165">
-        <v>9428.14251401121</v>
+        <v>9.170871628065816</v>
       </c>
       <c r="O165">
-        <v>9.151454379980301</v>
+        <v>62433.68355352127</v>
       </c>
       <c r="P165">
-        <v>56121.4686034542</v>
-      </c>
-      <c r="Q165">
-        <v>10.93527370285928</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17">
+        <v>11.04186020925482</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -9292,39 +8794,36 @@
         <v>101</v>
       </c>
       <c r="K166">
+        <v>4.61512051684126</v>
+      </c>
+      <c r="L166">
         <v>9</v>
       </c>
-      <c r="L166">
-        <v>63203</v>
-      </c>
       <c r="M166">
-        <v>11.05410704736279</v>
+        <v>61367</v>
       </c>
       <c r="N166">
-        <v>10141.13254117684</v>
+        <v>11.02462751036883</v>
       </c>
       <c r="O166">
-        <v>9.224354961359625</v>
+        <v>17426.67883390096</v>
       </c>
       <c r="P166">
-        <v>14087.69124883313</v>
-      </c>
-      <c r="Q166">
-        <v>9.553056734038179</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17">
+        <v>9.765757577266111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -9345,39 +8844,36 @@
         <v>52</v>
       </c>
       <c r="K167">
+        <v>3.951243718581428</v>
+      </c>
+      <c r="L167">
         <v>9</v>
       </c>
-      <c r="L167">
-        <v>109244</v>
-      </c>
       <c r="M167">
-        <v>11.60133919154122</v>
+        <v>111454</v>
       </c>
       <c r="N167">
-        <v>12857.36516421955</v>
+        <v>11.62136722870384</v>
       </c>
       <c r="O167">
-        <v>9.461672090658018</v>
+        <v>16691.6396001938</v>
       </c>
       <c r="P167">
-        <v>14532.12075720406</v>
-      </c>
-      <c r="Q167">
-        <v>9.58411670305086</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17">
+        <v>9.722663250308557</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
         <v>43</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168" t="s">
-        <v>44</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -9398,39 +8894,36 @@
         <v>70</v>
       </c>
       <c r="K168">
+        <v>4.248495242049359</v>
+      </c>
+      <c r="L168">
         <v>9</v>
       </c>
-      <c r="L168">
-        <v>11896</v>
-      </c>
       <c r="M168">
-        <v>9.383957488139991</v>
+        <v>14465</v>
       </c>
       <c r="N168">
-        <v>14000</v>
+        <v>9.579487217410236</v>
       </c>
       <c r="O168">
-        <v>9.546812608597396</v>
+        <v>18750</v>
       </c>
       <c r="P168">
-        <v>15000</v>
-      </c>
-      <c r="Q168">
-        <v>9.615805480084347</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17">
+        <v>9.838949031398556</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -9451,25 +8944,22 @@
         <v>30</v>
       </c>
       <c r="K169">
+        <v>3.401197381662155</v>
+      </c>
+      <c r="L169">
         <v>9</v>
       </c>
-      <c r="L169">
-        <v>86089</v>
-      </c>
       <c r="M169">
-        <v>11.36313692383358</v>
+        <v>86752</v>
       </c>
       <c r="N169">
-        <v>12000</v>
+        <v>11.37080875229839</v>
       </c>
       <c r="O169">
-        <v>9.392661928770137</v>
+        <v>17500</v>
       </c>
       <c r="P169">
-        <v>13000</v>
-      </c>
-      <c r="Q169">
-        <v>9.472704636443673</v>
+        <v>9.769956159911606</v>
       </c>
     </row>
   </sheetData>
